--- a/20151113-coal-bonding/2015-coal-bonding-obligations.xlsx
+++ b/20151113-coal-bonding/2015-coal-bonding-obligations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>State</t>
   </si>
@@ -78,16 +78,20 @@
   </si>
   <si>
     <t>TX</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,17 +124,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -408,7 +414,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +455,7 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.58099999999999996</v>
       </c>
     </row>
@@ -469,7 +475,7 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.64900000000000002</v>
       </c>
     </row>
@@ -489,7 +495,7 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.76300000000000001</v>
       </c>
     </row>
@@ -509,7 +515,7 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.56599999999999995</v>
       </c>
     </row>
@@ -529,7 +535,7 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.29199999999999998</v>
       </c>
     </row>
@@ -549,7 +555,7 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -569,24 +575,24 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>753733560.20000005</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="3">
@@ -597,20 +603,20 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
+      <c r="C10" s="1">
+        <v>110982505.3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>300080329.80000001</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -629,7 +635,7 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.69599999999999995</v>
       </c>
     </row>

--- a/20151113-coal-bonding/2015-coal-bonding-obligations.xlsx
+++ b/20151113-coal-bonding/2015-coal-bonding-obligations.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,16 +527,16 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>124510343</v>
+        <v>244510104.5</v>
       </c>
       <c r="D6">
-        <v>302088431.80000001</v>
+        <v>703623206.10000002</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2">
-        <v>0.29199999999999998</v>
+        <v>0.25788578648847232</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
